--- a/Uipath_Assesment/Q1.xlsx
+++ b/Uipath_Assesment/Q1.xlsx
@@ -143,7 +143,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="5">
+  <x:cellStyleXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
@@ -155,6 +155,12 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
